--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34468.22057249839</v>
+        <v>6821955.224222123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34468.22057249839</v>
+        <v>6821955.224222123</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13808.82386449062</v>
+        <v>834735.039649178</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808.82386449062</v>
+        <v>834735.039649178</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113750423.565526</v>
+        <v>46537625.01636263</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10911.34669046587</v>
+        <v>1216951.864265491</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19988.29222693597</v>
+        <v>2130000.218506622</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29065.23776340606</v>
+        <v>3043048.572747754</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38565.98576255811</v>
+        <v>3915708.957521146</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48074.35328950312</v>
+        <v>4798380.529144897</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57354.68595401758</v>
+        <v>5721109.429940265</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66540.81398932984</v>
+        <v>6633878.550283704</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75726.94202464212</v>
+        <v>7546647.670627151</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85091.61928342564</v>
+        <v>8425385.325280512</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94499.14866176734</v>
+        <v>9312650.55172595</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103906.6780401101</v>
+        <v>10199915.77817121</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113314.2074184531</v>
+        <v>11087181.00461651</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122721.736796796</v>
+        <v>11974446.23106182</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132129.2661751386</v>
+        <v>12861711.45750724</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141536.7955534814</v>
+        <v>13748976.68395252</v>
       </c>
     </row>
   </sheetData>
